--- a/5/2/4/Saldos 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Saldos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="386">
   <si>
     <t>Serie</t>
   </si>
@@ -1169,6 +1169,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12494,6 +12497,35 @@
         <v>13685</v>
       </c>
     </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>385</v>
+      </c>
+      <c r="B379">
+        <v>22912</v>
+      </c>
+      <c r="C379">
+        <v>20569</v>
+      </c>
+      <c r="D379">
+        <v>1196</v>
+      </c>
+      <c r="E379">
+        <v>1142</v>
+      </c>
+      <c r="F379">
+        <v>4</v>
+      </c>
+      <c r="G379">
+        <v>22912</v>
+      </c>
+      <c r="H379">
+        <v>9272</v>
+      </c>
+      <c r="I379">
+        <v>13640</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/4/Saldos 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Saldos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="387">
   <si>
     <t>Serie</t>
   </si>
@@ -1172,6 +1172,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12526,6 +12529,35 @@
         <v>13640</v>
       </c>
     </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>386</v>
+      </c>
+      <c r="B380">
+        <v>23290</v>
+      </c>
+      <c r="C380">
+        <v>20841</v>
+      </c>
+      <c r="D380">
+        <v>1342</v>
+      </c>
+      <c r="E380">
+        <v>1102</v>
+      </c>
+      <c r="F380">
+        <v>4</v>
+      </c>
+      <c r="G380">
+        <v>23290</v>
+      </c>
+      <c r="H380">
+        <v>9617</v>
+      </c>
+      <c r="I380">
+        <v>13672</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/4/Saldos 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Saldos 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="388">
   <si>
     <t>Serie</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12552,10 +12555,39 @@
         <v>23290</v>
       </c>
       <c r="H380">
-        <v>9617</v>
+        <v>9618</v>
       </c>
       <c r="I380">
         <v>13672</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>387</v>
+      </c>
+      <c r="B381">
+        <v>22820</v>
+      </c>
+      <c r="C381">
+        <v>20640</v>
+      </c>
+      <c r="D381">
+        <v>1040</v>
+      </c>
+      <c r="E381">
+        <v>1124</v>
+      </c>
+      <c r="F381">
+        <v>16</v>
+      </c>
+      <c r="G381">
+        <v>22820</v>
+      </c>
+      <c r="H381">
+        <v>9332</v>
+      </c>
+      <c r="I381">
+        <v>13488</v>
       </c>
     </row>
   </sheetData>
